--- a/my-app/public/AdminUserID.xlsx
+++ b/my-app/public/AdminUserID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Campus Navigator Next\Campus-Navigator\my-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CCF007-AD44-44FB-BE3C-F61F31E6A4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6DF927-6D23-4AE5-A84D-C603D937C573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Email</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>codernavank@gmail.com</t>
+  </si>
+  <si>
+    <t>navneet.23bce11743@vitbhopal.ac.in</t>
   </si>
 </sst>
 </file>
@@ -371,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -407,12 +410,18 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{346E3ACF-079B-4282-95AB-D2548CCCD3F3}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{1CC85672-CE33-4BFA-BCB5-D3B9D1E4306E}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{9B2A6E76-C5A2-46FD-A83D-CD9BB4C1FCEC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/my-app/public/AdminUserID.xlsx
+++ b/my-app/public/AdminUserID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Campus Navigator Next\Campus-Navigator\my-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6DF927-6D23-4AE5-A84D-C603D937C573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E5909F-A8FE-4023-BC2D-BBD547E42434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Email</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>navneet.23bce11743@vitbhopal.ac.in</t>
+  </si>
+  <si>
+    <t>eamanadeep006@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -374,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,13 +418,19 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{346E3ACF-079B-4282-95AB-D2548CCCD3F3}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{1CC85672-CE33-4BFA-BCB5-D3B9D1E4306E}"/>
     <hyperlink ref="A6" r:id="rId3" xr:uid="{9B2A6E76-C5A2-46FD-A83D-CD9BB4C1FCEC}"/>
+    <hyperlink ref="A7" r:id="rId4" xr:uid="{CAE7D163-4E29-4D17-8C3A-67DB8F1E06F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>